--- a/Code/Results/Cases/Case_4_255/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_255/res_line/pl_mw.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.0705018019477</v>
+        <v>0.828054639203998</v>
       </c>
       <c r="C2">
-        <v>0.08626503776900307</v>
+        <v>0.04792406147589645</v>
       </c>
       <c r="D2">
-        <v>0.297535525595066</v>
+        <v>0.5152381671841937</v>
       </c>
       <c r="E2">
-        <v>0.07434134631060019</v>
+        <v>0.1639553252878763</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0008429597614577233</v>
+        <v>0.002551623589767713</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.7529098719080238</v>
+        <v>1.617277362494804</v>
       </c>
       <c r="J2">
-        <v>0.02145122796257404</v>
+        <v>0.05827119115450818</v>
       </c>
       <c r="K2">
-        <v>0.9388679590596212</v>
+        <v>0.5218678611569487</v>
       </c>
       <c r="L2">
-        <v>0.2887107107634534</v>
+        <v>0.4534027135190968</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>3.348035397761436</v>
+        <v>6.916752145533223</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9339559726219875</v>
+        <v>0.7928720045402713</v>
       </c>
       <c r="C3">
-        <v>0.07929298000310325</v>
+        <v>0.0455418629143125</v>
       </c>
       <c r="D3">
-        <v>0.2777393183587265</v>
+        <v>0.5128221173465022</v>
       </c>
       <c r="E3">
-        <v>0.07171999348550351</v>
+        <v>0.1640847198606945</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0008473954741961769</v>
+        <v>0.002554523241422897</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.7569789394672597</v>
+        <v>1.626806794587409</v>
       </c>
       <c r="J3">
-        <v>0.02177469089397643</v>
+        <v>0.05851187378665479</v>
       </c>
       <c r="K3">
-        <v>0.8154932664302805</v>
+        <v>0.488148608338463</v>
       </c>
       <c r="L3">
-        <v>0.264277534496685</v>
+        <v>0.4492969709061612</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>3.325247436869233</v>
+        <v>6.948975187960343</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8505619428291311</v>
+        <v>0.771585408027903</v>
       </c>
       <c r="C4">
-        <v>0.07500402635869108</v>
+        <v>0.04406219162893876</v>
       </c>
       <c r="D4">
-        <v>0.2659215006607809</v>
+        <v>0.5115524385223722</v>
       </c>
       <c r="E4">
-        <v>0.07019220805871385</v>
+        <v>0.164220584608314</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0008502103245123748</v>
+        <v>0.002556399658985489</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.7605951178615129</v>
+        <v>1.633278702442084</v>
       </c>
       <c r="J4">
-        <v>0.02198526511285603</v>
+        <v>0.05866908899268708</v>
       </c>
       <c r="K4">
-        <v>0.740021774997615</v>
+        <v>0.467616847792641</v>
       </c>
       <c r="L4">
-        <v>0.249563626276128</v>
+        <v>0.4469630400411688</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>3.316430873880165</v>
+        <v>6.971591475876039</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.816675217308557</v>
+        <v>0.7629910051239222</v>
       </c>
       <c r="C5">
-        <v>0.07325344401546374</v>
+        <v>0.04345495228776031</v>
       </c>
       <c r="D5">
-        <v>0.2611860972999409</v>
+        <v>0.5110889153889957</v>
       </c>
       <c r="E5">
-        <v>0.06958942108940569</v>
+        <v>0.1642901684252642</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0008513807738564361</v>
+        <v>0.002557188531364042</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.762340489631292</v>
+        <v>1.63607226028947</v>
       </c>
       <c r="J5">
-        <v>0.02207406989052796</v>
+        <v>0.05873553328932513</v>
       </c>
       <c r="K5">
-        <v>0.7093238318161355</v>
+        <v>0.4592937715077028</v>
       </c>
       <c r="L5">
-        <v>0.2436355867124576</v>
+        <v>0.4460591041133739</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>3.31409037677733</v>
+        <v>6.981520162367445</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8110537887558849</v>
+        <v>0.761568766355424</v>
       </c>
       <c r="C6">
-        <v>0.07296257062665745</v>
+        <v>0.04335386363100469</v>
       </c>
       <c r="D6">
-        <v>0.2604045241964741</v>
+        <v>0.5110152056523276</v>
       </c>
       <c r="E6">
-        <v>0.0694905031683799</v>
+        <v>0.1643025824169264</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0008515765497069272</v>
+        <v>0.002557320987864036</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.7626464567394144</v>
+        <v>1.636545565605353</v>
       </c>
       <c r="J6">
-        <v>0.02208899626617589</v>
+        <v>0.05874671008423027</v>
       </c>
       <c r="K6">
-        <v>0.704229546587527</v>
+        <v>0.4579143911450956</v>
       </c>
       <c r="L6">
-        <v>0.2426552211917823</v>
+        <v>0.4459118585386364</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>3.313775989573543</v>
+        <v>6.983211851166402</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8501045610312019</v>
+        <v>0.7714691758526442</v>
       </c>
       <c r="C7">
-        <v>0.07498042970382102</v>
+        <v>0.04405401942457132</v>
       </c>
       <c r="D7">
-        <v>0.2658573171533618</v>
+        <v>0.5115459689595951</v>
       </c>
       <c r="E7">
-        <v>0.07018399947150478</v>
+        <v>0.1642214654303888</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.0008502260144363505</v>
+        <v>0.002556410199758831</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.7606175682193452</v>
+        <v>1.633315744752842</v>
       </c>
       <c r="J7">
-        <v>0.02198645066143046</v>
+        <v>0.05866997544918462</v>
       </c>
       <c r="K7">
-        <v>0.7396075568976528</v>
+        <v>0.4675044218915616</v>
       </c>
       <c r="L7">
-        <v>0.2494834090670537</v>
+        <v>0.4469506581179701</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>3.316394301489652</v>
+        <v>6.971722492706846</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.023318935987248</v>
+        <v>0.815858539375796</v>
       </c>
       <c r="C8">
-        <v>0.08386227098201715</v>
+        <v>0.04710621223176048</v>
       </c>
       <c r="D8">
-        <v>0.2906371449652738</v>
+        <v>0.5143608139802893</v>
       </c>
       <c r="E8">
-        <v>0.07342007222106517</v>
+        <v>0.1639882500627579</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0008444705011728299</v>
+        <v>0.002552603504314093</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.7540751384866624</v>
+        <v>1.620434322368602</v>
       </c>
       <c r="J8">
-        <v>0.02156026503050779</v>
+        <v>0.05835222346028335</v>
       </c>
       <c r="K8">
-        <v>0.896261699791097</v>
+        <v>0.5102060724505861</v>
       </c>
       <c r="L8">
-        <v>0.2802235757473994</v>
+        <v>0.4519483173614134</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>3.339073634519849</v>
+        <v>6.927275288080068</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.367267194261899</v>
+        <v>0.9053861421480178</v>
       </c>
       <c r="C9">
-        <v>0.1012533071823469</v>
+        <v>0.05295648838240652</v>
       </c>
       <c r="D9">
-        <v>0.342114079454646</v>
+        <v>0.5215723984467218</v>
       </c>
       <c r="E9">
-        <v>0.08045094288922883</v>
+        <v>0.163977280847508</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.0008338885546278792</v>
+        <v>0.002545897161443933</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.750559600028744</v>
+        <v>1.600095677689495</v>
       </c>
       <c r="J9">
-        <v>0.0208201737169853</v>
+        <v>0.05780373654097026</v>
       </c>
       <c r="K9">
-        <v>1.206347871706527</v>
+        <v>0.5952897995800015</v>
       </c>
       <c r="L9">
-        <v>0.3430079454537633</v>
+        <v>0.4632276210750774</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>3.426961670765905</v>
+        <v>6.862562682809653</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.623693397265185</v>
+        <v>0.9726485448103119</v>
       </c>
       <c r="C10">
-        <v>0.1140724082058</v>
+        <v>0.05717240417305902</v>
       </c>
       <c r="D10">
-        <v>0.3820039706075988</v>
+        <v>0.5278970306475372</v>
       </c>
       <c r="E10">
-        <v>0.08608834668908472</v>
+        <v>0.1642398043820812</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.0008265141922693729</v>
+        <v>0.00254142783968889</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.7543138711016226</v>
+        <v>1.588148505846171</v>
       </c>
       <c r="J10">
-        <v>0.02033577592591573</v>
+        <v>0.05744592343195265</v>
       </c>
       <c r="K10">
-        <v>1.436927065087275</v>
+        <v>0.6586028526747612</v>
       </c>
       <c r="L10">
-        <v>0.3909863891092726</v>
+        <v>0.4724108683556665</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>3.521485655632347</v>
+        <v>6.828686058940235</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.741427788018854</v>
+        <v>1.003565819817197</v>
       </c>
       <c r="C11">
-        <v>0.1199273714179441</v>
+        <v>0.0590725036426818</v>
       </c>
       <c r="D11">
-        <v>0.4006748155150603</v>
+        <v>0.5309961332822581</v>
       </c>
       <c r="E11">
-        <v>0.08876834882959628</v>
+        <v>0.1644176753809425</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.0008232393930896959</v>
+        <v>0.002539493060426585</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.757555480577885</v>
+        <v>1.583362939669748</v>
       </c>
       <c r="J11">
-        <v>0.02012854591163116</v>
+        <v>0.0572928806031916</v>
       </c>
       <c r="K11">
-        <v>1.542663460118831</v>
+        <v>0.6875762879836316</v>
       </c>
       <c r="L11">
-        <v>0.413292802606918</v>
+        <v>0.476782181737164</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>3.571826078704163</v>
+        <v>6.81623925243062</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.786190598389652</v>
+        <v>1.015318725752934</v>
       </c>
       <c r="C12">
-        <v>0.1221491361766311</v>
+        <v>0.05978946476817271</v>
       </c>
       <c r="D12">
-        <v>0.4078270471431296</v>
+        <v>0.5322015000085116</v>
       </c>
       <c r="E12">
-        <v>0.08980095860885484</v>
+        <v>0.1644934063738077</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.0008220101877629421</v>
+        <v>0.002538774476537588</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.7590177781269247</v>
+        <v>1.581644054259677</v>
       </c>
       <c r="J12">
-        <v>0.02005198391019913</v>
+        <v>0.05723632079614305</v>
       </c>
       <c r="K12">
-        <v>1.582845868010452</v>
+        <v>0.6985720703800382</v>
       </c>
       <c r="L12">
-        <v>0.4218157215765217</v>
+        <v>0.4784652403656651</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>3.592019601846488</v>
+        <v>6.811951849087393</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.776541758205241</v>
+        <v>1.012785527882471</v>
       </c>
       <c r="C13">
-        <v>0.1216704131397961</v>
+        <v>0.05963516867662122</v>
       </c>
       <c r="D13">
-        <v>0.4062829305198505</v>
+        <v>0.5319404901260043</v>
       </c>
       <c r="E13">
-        <v>0.08957775909738075</v>
+        <v>0.164476724335028</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.0008222744445555964</v>
+        <v>0.002538928611605489</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.7586921668647832</v>
+        <v>1.582010098163224</v>
       </c>
       <c r="J13">
-        <v>0.0200683874883163</v>
+        <v>0.05724844003005458</v>
       </c>
       <c r="K13">
-        <v>1.574185187686737</v>
+        <v>0.6962028658267343</v>
       </c>
       <c r="L13">
-        <v>0.4199766656682158</v>
+        <v>0.4781015320626807</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>3.587619020549312</v>
+        <v>6.812856278848102</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.745106716649872</v>
+        <v>1.004531836521352</v>
       </c>
       <c r="C14">
-        <v>0.1201100573223499</v>
+        <v>0.05913153995800258</v>
       </c>
       <c r="D14">
-        <v>0.4012615516369777</v>
+        <v>0.5310946628127198</v>
       </c>
       <c r="E14">
-        <v>0.08885293967598784</v>
+        <v>0.1644237381349889</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.0008231380509362912</v>
+        <v>0.002539433660462575</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.757670994284922</v>
+        <v>1.583219656301637</v>
       </c>
       <c r="J14">
-        <v>0.02012220865524661</v>
+        <v>0.05728819947885366</v>
       </c>
       <c r="K14">
-        <v>1.54596631319626</v>
+        <v>0.6884804364110266</v>
       </c>
       <c r="L14">
-        <v>0.4139924248847819</v>
+        <v>0.4769200928465409</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>3.573464300758417</v>
+        <v>6.815877990370097</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.725875926943928</v>
+        <v>0.9994820783535658</v>
       </c>
       <c r="C15">
-        <v>0.1191549342466374</v>
+        <v>0.05882271833124264</v>
       </c>
       <c r="D15">
-        <v>0.3981966913224966</v>
+        <v>0.5305807074313407</v>
       </c>
       <c r="E15">
-        <v>0.0884113138034337</v>
+        <v>0.1643923723663896</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.0008236684347369004</v>
+        <v>0.002539744848494321</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.7570765107708866</v>
+        <v>1.583972694879073</v>
       </c>
       <c r="J15">
-        <v>0.02015542535668935</v>
+        <v>0.05731273471497822</v>
       </c>
       <c r="K15">
-        <v>1.528700620170298</v>
+        <v>0.6837533565383467</v>
       </c>
       <c r="L15">
-        <v>0.4103370088742935</v>
+        <v>0.4762000354857463</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>3.564943701752071</v>
+        <v>6.817784337053553</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.616022963193757</v>
+        <v>0.9706343923161</v>
       </c>
       <c r="C16">
-        <v>0.113690348810394</v>
+        <v>0.05704786998798284</v>
       </c>
       <c r="D16">
-        <v>0.3807948935990169</v>
+        <v>0.527698953957028</v>
       </c>
       <c r="E16">
-        <v>0.08591562235041295</v>
+        <v>0.1642293536789445</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.0008267297650351758</v>
+        <v>0.002541556255248763</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.7541340789598863</v>
+        <v>1.588474313654224</v>
       </c>
       <c r="J16">
-        <v>0.0203495850268185</v>
+        <v>0.05745612049301663</v>
       </c>
       <c r="K16">
-        <v>1.430035687648115</v>
+        <v>0.6567127835873521</v>
       </c>
       <c r="L16">
-        <v>0.3895388591972022</v>
+        <v>0.4721290813474042</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>3.518349799482621</v>
+        <v>6.829559104401199</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.548925637311953</v>
+        <v>0.9530185410343677</v>
       </c>
       <c r="C17">
-        <v>0.1103448678523051</v>
+        <v>0.05595450388226197</v>
       </c>
       <c r="D17">
-        <v>0.3702583515994036</v>
+        <v>0.5259878653217953</v>
       </c>
       <c r="E17">
-        <v>0.08441496911268587</v>
+        <v>0.1641442957658725</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.000828627831961665</v>
+        <v>0.002542692634235122</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.7527316145714877</v>
+        <v>1.591402160809892</v>
       </c>
       <c r="J17">
-        <v>0.02047207394292094</v>
+        <v>0.05754657127695584</v>
       </c>
       <c r="K17">
-        <v>1.369738644430981</v>
+        <v>0.6401679220394385</v>
       </c>
       <c r="L17">
-        <v>0.376907707046982</v>
+        <v>0.4696812275430347</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>3.491697814397128</v>
+        <v>6.83754146446833</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.510433637351554</v>
+        <v>0.9429164625761643</v>
       </c>
       <c r="C18">
-        <v>0.1084227663700545</v>
+        <v>0.05532395951135527</v>
       </c>
       <c r="D18">
-        <v>0.3642469835132118</v>
+        <v>0.5250245947839431</v>
       </c>
       <c r="E18">
-        <v>0.08356263332582614</v>
+        <v>0.1641008758455875</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.0008297271018347391</v>
+        <v>0.002543355508992973</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.7520684085895653</v>
+        <v>1.593147296138298</v>
       </c>
       <c r="J18">
-        <v>0.02054376016361292</v>
+        <v>0.05759951211423076</v>
       </c>
       <c r="K18">
-        <v>1.335135551104543</v>
+        <v>0.6306679791948113</v>
       </c>
       <c r="L18">
-        <v>0.3696874174316349</v>
+        <v>0.4682915368035339</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>3.477054448937281</v>
+        <v>6.842411693098086</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.497417504234221</v>
+        <v>0.9395012624922572</v>
       </c>
       <c r="C19">
-        <v>0.1077723057258169</v>
+        <v>0.05511018178043514</v>
       </c>
       <c r="D19">
-        <v>0.362219857187597</v>
+        <v>0.5247020415625059</v>
       </c>
       <c r="E19">
-        <v>0.08327586862102976</v>
+        <v>0.164087120679909</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.0008301006101509537</v>
+        <v>0.002543581539692585</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.7518680807590812</v>
+        <v>1.593748667344485</v>
       </c>
       <c r="J19">
-        <v>0.02056824309160987</v>
+        <v>0.05761759442954251</v>
       </c>
       <c r="K19">
-        <v>1.323432354995759</v>
+        <v>0.6274542654643938</v>
       </c>
       <c r="L19">
-        <v>0.367250248610631</v>
+        <v>0.4678241498918112</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>3.472212107655764</v>
+        <v>6.844108593093665</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.556057686235164</v>
+        <v>0.9548906690574199</v>
       </c>
       <c r="C20">
-        <v>0.1107007708524037</v>
+        <v>0.05607106741931034</v>
       </c>
       <c r="D20">
-        <v>0.3713748702312216</v>
+        <v>0.5261678511720618</v>
       </c>
       <c r="E20">
-        <v>0.08457359042900592</v>
+        <v>0.1641527809863028</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.0008284250020731315</v>
+        <v>0.002542570706826306</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.7528659626891354</v>
+        <v>1.591084161722776</v>
       </c>
       <c r="J20">
-        <v>0.02045890692217434</v>
+        <v>0.05753684787453484</v>
       </c>
       <c r="K20">
-        <v>1.376149131284365</v>
+        <v>0.6419274757709275</v>
       </c>
       <c r="L20">
-        <v>0.3782476287249636</v>
+        <v>0.4699399179102386</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>3.494463423738694</v>
+        <v>6.836662856491898</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.754334887649122</v>
+        <v>1.0069549245095</v>
       </c>
       <c r="C21">
-        <v>0.1205682359261573</v>
+        <v>0.05927953765298355</v>
       </c>
       <c r="D21">
-        <v>0.4027341727733642</v>
+        <v>0.5313422405976667</v>
       </c>
       <c r="E21">
-        <v>0.08906534545589295</v>
+        <v>0.1644390744038091</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.0008228840981574243</v>
+        <v>0.002539284933651159</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.7579644472084937</v>
+        <v>1.582861847958235</v>
       </c>
       <c r="J21">
-        <v>0.0201063479946697</v>
+        <v>0.05727648336430846</v>
       </c>
       <c r="K21">
-        <v>1.554250843521118</v>
+        <v>0.6907480496034282</v>
       </c>
       <c r="L21">
-        <v>0.4157480228215746</v>
+        <v>0.477266358457527</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>3.577590571564514</v>
+        <v>6.8149788828689</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.8849780687666</v>
+        <v>1.041245088316458</v>
       </c>
       <c r="C22">
-        <v>0.1270447619826172</v>
+        <v>0.06136149941815461</v>
       </c>
       <c r="D22">
-        <v>0.4237105603895088</v>
+        <v>0.5349093251372778</v>
       </c>
       <c r="E22">
-        <v>0.09210502376273055</v>
+        <v>0.1646749865525301</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.0008193259698770426</v>
+        <v>0.002537219500388543</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.7626724079890863</v>
+        <v>1.578031914724015</v>
       </c>
       <c r="J22">
-        <v>0.01988708462672761</v>
+        <v>0.05711444435685387</v>
       </c>
       <c r="K22">
-        <v>1.671491097657906</v>
+        <v>0.7227957455243086</v>
       </c>
       <c r="L22">
-        <v>0.4407030248671333</v>
+        <v>0.4822162229209965</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>3.638548583042251</v>
+        <v>6.80328968993075</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.815146379604897</v>
+        <v>1.022919935578358</v>
       </c>
       <c r="C23">
-        <v>0.1235851576791021</v>
+        <v>0.06025169060785629</v>
       </c>
       <c r="D23">
-        <v>0.412468746259492</v>
+        <v>0.5329885872592683</v>
       </c>
       <c r="E23">
-        <v>0.09047277058828485</v>
+        <v>0.1645446200937997</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.0008212194350587509</v>
+        <v>0.002538314378967883</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.7600288131518695</v>
+        <v>1.580560000221254</v>
       </c>
       <c r="J23">
-        <v>0.02000308053441469</v>
+        <v>0.057200185801074</v>
       </c>
       <c r="K23">
-        <v>1.608833537520582</v>
+        <v>0.7056786051277868</v>
       </c>
       <c r="L23">
-        <v>0.4273408383687638</v>
+        <v>0.4795596431951452</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>3.605381213150963</v>
+        <v>6.809301366693063</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.552833029677998</v>
+        <v>0.9540442004679619</v>
       </c>
       <c r="C24">
-        <v>0.110539863273587</v>
+        <v>0.05601837512820396</v>
       </c>
       <c r="D24">
-        <v>0.3708699486490303</v>
+        <v>0.5260864158392309</v>
       </c>
       <c r="E24">
-        <v>0.08450184539302796</v>
+        <v>0.164148927743426</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.0008285166762909877</v>
+        <v>0.002542625800455038</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.7528047792756212</v>
+        <v>1.591227736358768</v>
       </c>
       <c r="J24">
-        <v>0.02046485579156077</v>
+        <v>0.05754124089833201</v>
       </c>
       <c r="K24">
-        <v>1.373250757123486</v>
+        <v>0.6411319443629395</v>
       </c>
       <c r="L24">
-        <v>0.3776417212940117</v>
+        <v>0.4698229091234509</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>3.493210981758409</v>
+        <v>6.83705919962577</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.273651373673061</v>
+        <v>0.8809036815543436</v>
       </c>
       <c r="C25">
-        <v>0.09654567528098568</v>
+        <v>0.051388287871454</v>
       </c>
       <c r="D25">
-        <v>0.3278485207369926</v>
+        <v>0.5194408866511111</v>
       </c>
       <c r="E25">
-        <v>0.07847018877323109</v>
+        <v>0.1639326207283851</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.0008366787502741975</v>
+        <v>0.00254763067335293</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.7504481633550952</v>
+        <v>1.605071409999546</v>
       </c>
       <c r="J25">
-        <v>0.02101004532800221</v>
+        <v>0.05794416228581944</v>
       </c>
       <c r="K25">
-        <v>1.122053386972993</v>
+        <v>0.5721302262109589</v>
       </c>
       <c r="L25">
-        <v>0.3257229343585095</v>
+        <v>0.4600184863321459</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>3.398192314401712</v>
+        <v>6.877667719547389</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_255/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_255/res_line/pl_mw.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.828054639203998</v>
+        <v>1.070501801947898</v>
       </c>
       <c r="C2">
-        <v>0.04792406147589645</v>
+        <v>0.08626503776899597</v>
       </c>
       <c r="D2">
-        <v>0.5152381671841937</v>
+        <v>0.2975355255950234</v>
       </c>
       <c r="E2">
-        <v>0.1639553252878763</v>
+        <v>0.07434134631058242</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.002551623589767713</v>
+        <v>0.0008429597614888052</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.617277362494804</v>
+        <v>0.7529098719080309</v>
       </c>
       <c r="J2">
-        <v>0.05827119115450818</v>
+        <v>0.02145122796252252</v>
       </c>
       <c r="K2">
-        <v>0.5218678611569487</v>
+        <v>0.9388679590596496</v>
       </c>
       <c r="L2">
-        <v>0.4534027135190968</v>
+        <v>0.2887107107634819</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>6.916752145533223</v>
+        <v>3.34803539776135</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7928720045402713</v>
+        <v>0.9339559726217885</v>
       </c>
       <c r="C3">
-        <v>0.0455418629143125</v>
+        <v>0.07929298000357221</v>
       </c>
       <c r="D3">
-        <v>0.5128221173465022</v>
+        <v>0.2777393183588543</v>
       </c>
       <c r="E3">
-        <v>0.1640847198606945</v>
+        <v>0.07171999348551061</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.002554523241422897</v>
+        <v>0.0008473954741672159</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.626806794587409</v>
+        <v>0.7569789394672881</v>
       </c>
       <c r="J3">
-        <v>0.05851187378665479</v>
+        <v>0.02177469089391604</v>
       </c>
       <c r="K3">
-        <v>0.488148608338463</v>
+        <v>0.8154932664301953</v>
       </c>
       <c r="L3">
-        <v>0.4492969709061612</v>
+        <v>0.2642775344966566</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>6.948975187960343</v>
+        <v>3.325247436869233</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.771585408027903</v>
+        <v>0.8505619428289606</v>
       </c>
       <c r="C4">
-        <v>0.04406219162893876</v>
+        <v>0.07500402635835002</v>
       </c>
       <c r="D4">
-        <v>0.5115524385223722</v>
+        <v>0.2659215006607951</v>
       </c>
       <c r="E4">
-        <v>0.164220584608314</v>
+        <v>0.07019220805869075</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.002556399658985489</v>
+        <v>0.0008502103244556579</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.633278702442084</v>
+        <v>0.7605951178615378</v>
       </c>
       <c r="J4">
-        <v>0.05866908899268708</v>
+        <v>0.02198526511273746</v>
       </c>
       <c r="K4">
-        <v>0.467616847792641</v>
+        <v>0.7400217749975866</v>
       </c>
       <c r="L4">
-        <v>0.4469630400411688</v>
+        <v>0.2495636262760996</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>6.971591475876039</v>
+        <v>3.316430873880222</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7629910051239222</v>
+        <v>0.8166752173085285</v>
       </c>
       <c r="C5">
-        <v>0.04345495228776031</v>
+        <v>0.07325344401559164</v>
       </c>
       <c r="D5">
-        <v>0.5110889153889957</v>
+        <v>0.2611860973000404</v>
       </c>
       <c r="E5">
-        <v>0.1642901684252642</v>
+        <v>0.06958942108941812</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.002557188531364042</v>
+        <v>0.0008513807738548251</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.63607226028947</v>
+        <v>0.7623404896312991</v>
       </c>
       <c r="J5">
-        <v>0.05873553328932513</v>
+        <v>0.02207406989054039</v>
       </c>
       <c r="K5">
-        <v>0.4592937715077028</v>
+        <v>0.7093238318162491</v>
       </c>
       <c r="L5">
-        <v>0.4460591041133739</v>
+        <v>0.2436355867124291</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>6.981520162367445</v>
+        <v>3.3140903767775</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.761568766355424</v>
+        <v>0.8110537887558564</v>
       </c>
       <c r="C6">
-        <v>0.04335386363100469</v>
+        <v>0.07296257062641587</v>
       </c>
       <c r="D6">
-        <v>0.5110152056523276</v>
+        <v>0.2604045241964883</v>
       </c>
       <c r="E6">
-        <v>0.1643025824169264</v>
+        <v>0.06949050316838878</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.002557320987864036</v>
+        <v>0.0008515765496212868</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.636545565605353</v>
+        <v>0.762646456739386</v>
       </c>
       <c r="J6">
-        <v>0.05874671008423027</v>
+        <v>0.02208899626634864</v>
       </c>
       <c r="K6">
-        <v>0.4579143911450956</v>
+        <v>0.7042295465874986</v>
       </c>
       <c r="L6">
-        <v>0.4459118585386364</v>
+        <v>0.2426552211917681</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>6.983211851166402</v>
+        <v>3.313775989573571</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7714691758526442</v>
+        <v>0.8501045610311735</v>
       </c>
       <c r="C7">
-        <v>0.04405401942457132</v>
+        <v>0.07498042970357233</v>
       </c>
       <c r="D7">
-        <v>0.5115459689595951</v>
+        <v>0.265857317153305</v>
       </c>
       <c r="E7">
-        <v>0.1642214654303888</v>
+        <v>0.07018399947147103</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.002556410199758831</v>
+        <v>0.0008502260144354455</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.633315744752842</v>
+        <v>0.7606175682193239</v>
       </c>
       <c r="J7">
-        <v>0.05866997544918462</v>
+        <v>0.02198645066128702</v>
       </c>
       <c r="K7">
-        <v>0.4675044218915616</v>
+        <v>0.7396075568977096</v>
       </c>
       <c r="L7">
-        <v>0.4469506581179701</v>
+        <v>0.2494834090670963</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>6.971722492706846</v>
+        <v>3.316394301489623</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.815858539375796</v>
+        <v>1.023318935987305</v>
       </c>
       <c r="C8">
-        <v>0.04710621223176048</v>
+        <v>0.08386227098212373</v>
       </c>
       <c r="D8">
-        <v>0.5143608139802893</v>
+        <v>0.2906371449654301</v>
       </c>
       <c r="E8">
-        <v>0.1639882500627579</v>
+        <v>0.07342007222107227</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.002552603504314093</v>
+        <v>0.0008444705012009742</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.620434322368602</v>
+        <v>0.7540751384866695</v>
       </c>
       <c r="J8">
-        <v>0.05835222346028335</v>
+        <v>0.02156026503063257</v>
       </c>
       <c r="K8">
-        <v>0.5102060724505861</v>
+        <v>0.8962616997911255</v>
       </c>
       <c r="L8">
-        <v>0.4519483173614134</v>
+        <v>0.2802235757474563</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>6.927275288080068</v>
+        <v>3.339073634519821</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.9053861421480178</v>
+        <v>1.367267194262098</v>
       </c>
       <c r="C9">
-        <v>0.05295648838240652</v>
+        <v>0.1012533071828017</v>
       </c>
       <c r="D9">
-        <v>0.5215723984467218</v>
+        <v>0.3421140794545323</v>
       </c>
       <c r="E9">
-        <v>0.163977280847508</v>
+        <v>0.08045094288920751</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.002545897161443933</v>
+        <v>0.0008338885546258808</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.600095677689495</v>
+        <v>0.7505596000287582</v>
       </c>
       <c r="J9">
-        <v>0.05780373654097026</v>
+        <v>0.02082017371696221</v>
       </c>
       <c r="K9">
-        <v>0.5952897995800015</v>
+        <v>1.20634787170647</v>
       </c>
       <c r="L9">
-        <v>0.4632276210750774</v>
+        <v>0.3430079454536923</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>6.862562682809653</v>
+        <v>3.426961670765934</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.9726485448103119</v>
+        <v>1.623693397265242</v>
       </c>
       <c r="C10">
-        <v>0.05717240417305902</v>
+        <v>0.1140724082058</v>
       </c>
       <c r="D10">
-        <v>0.5278970306475372</v>
+        <v>0.3820039706079257</v>
       </c>
       <c r="E10">
-        <v>0.1642398043820812</v>
+        <v>0.08608834668908116</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.00254142783968889</v>
+        <v>0.0008265141922685583</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.588148505846171</v>
+        <v>0.7543138711016013</v>
       </c>
       <c r="J10">
-        <v>0.05744592343195265</v>
+        <v>0.02033577592600988</v>
       </c>
       <c r="K10">
-        <v>0.6586028526747612</v>
+        <v>1.436927065087332</v>
       </c>
       <c r="L10">
-        <v>0.4724108683556665</v>
+        <v>0.3909863891092584</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>6.828686058940235</v>
+        <v>3.521485655632404</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.003565819817197</v>
+        <v>1.741427788018825</v>
       </c>
       <c r="C11">
-        <v>0.0590725036426818</v>
+        <v>0.1199273714179157</v>
       </c>
       <c r="D11">
-        <v>0.5309961332822581</v>
+        <v>0.4006748155149609</v>
       </c>
       <c r="E11">
-        <v>0.1644176753809425</v>
+        <v>0.08876834882961404</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.002539493060426585</v>
+        <v>0.0008232393930604258</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1.583362939669748</v>
+        <v>0.7575554805778495</v>
       </c>
       <c r="J11">
-        <v>0.0572928806031916</v>
+        <v>0.02012854591159297</v>
       </c>
       <c r="K11">
-        <v>0.6875762879836316</v>
+        <v>1.54266346011886</v>
       </c>
       <c r="L11">
-        <v>0.476782181737164</v>
+        <v>0.4132928026069038</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>6.81623925243062</v>
+        <v>3.571826078704021</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.015318725752934</v>
+        <v>1.786190598389481</v>
       </c>
       <c r="C12">
-        <v>0.05978946476817271</v>
+        <v>0.122149136176489</v>
       </c>
       <c r="D12">
-        <v>0.5322015000085116</v>
+        <v>0.4078270471431154</v>
       </c>
       <c r="E12">
-        <v>0.1644934063738077</v>
+        <v>0.08980095860883708</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.002538774476537588</v>
+        <v>0.0008220101877556753</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1.581644054259677</v>
+        <v>0.7590177781269531</v>
       </c>
       <c r="J12">
-        <v>0.05723632079614305</v>
+        <v>0.02005198391032348</v>
       </c>
       <c r="K12">
-        <v>0.6985720703800382</v>
+        <v>1.582845868010423</v>
       </c>
       <c r="L12">
-        <v>0.4784652403656651</v>
+        <v>0.4218157215765359</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>6.811951849087393</v>
+        <v>3.592019601846488</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.012785527882471</v>
+        <v>1.776541758205155</v>
       </c>
       <c r="C13">
-        <v>0.05963516867662122</v>
+        <v>0.121670413139654</v>
       </c>
       <c r="D13">
-        <v>0.5319404901260043</v>
+        <v>0.4062829305197226</v>
       </c>
       <c r="E13">
-        <v>0.164476724335028</v>
+        <v>0.08957775909738785</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.002538928611605489</v>
+        <v>0.0008222744446155208</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1.582010098163224</v>
+        <v>0.7586921668647761</v>
       </c>
       <c r="J13">
-        <v>0.05724844003005458</v>
+        <v>0.0200683874882337</v>
       </c>
       <c r="K13">
-        <v>0.6962028658267343</v>
+        <v>1.574185187686595</v>
       </c>
       <c r="L13">
-        <v>0.4781015320626807</v>
+        <v>0.4199766656679884</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>6.812856278848102</v>
+        <v>3.587619020549198</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.004531836521352</v>
+        <v>1.745106716649843</v>
       </c>
       <c r="C14">
-        <v>0.05913153995800258</v>
+        <v>0.1201100573223499</v>
       </c>
       <c r="D14">
-        <v>0.5310946628127198</v>
+        <v>0.401261551636793</v>
       </c>
       <c r="E14">
-        <v>0.1644237381349889</v>
+        <v>0.08885293967596652</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.002539433660462575</v>
+        <v>0.0008231380508733895</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1.583219656301637</v>
+        <v>0.7576709942849149</v>
       </c>
       <c r="J14">
-        <v>0.05728819947885366</v>
+        <v>0.02012220865530345</v>
       </c>
       <c r="K14">
-        <v>0.6884804364110266</v>
+        <v>1.545966313196317</v>
       </c>
       <c r="L14">
-        <v>0.4769200928465409</v>
+        <v>0.4139924248848246</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>6.815877990370097</v>
+        <v>3.573464300758474</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.9994820783535658</v>
+        <v>1.7258759269439</v>
       </c>
       <c r="C15">
-        <v>0.05882271833124264</v>
+        <v>0.1191549342466516</v>
       </c>
       <c r="D15">
-        <v>0.5305807074313407</v>
+        <v>0.3981966913223829</v>
       </c>
       <c r="E15">
-        <v>0.1643923723663896</v>
+        <v>0.08841131380345857</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.002539744848494321</v>
+        <v>0.0008236684347371348</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1.583972694879073</v>
+        <v>0.7570765107708937</v>
       </c>
       <c r="J15">
-        <v>0.05731273471497822</v>
+        <v>0.02015542535673731</v>
       </c>
       <c r="K15">
-        <v>0.6837533565383467</v>
+        <v>1.528700620170241</v>
       </c>
       <c r="L15">
-        <v>0.4762000354857463</v>
+        <v>0.4103370088742793</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>6.817784337053553</v>
+        <v>3.5649437017521</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.9706343923161</v>
+        <v>1.616022963193529</v>
       </c>
       <c r="C16">
-        <v>0.05704786998798284</v>
+        <v>0.113690348810394</v>
       </c>
       <c r="D16">
-        <v>0.527698953957028</v>
+        <v>0.3807948935990595</v>
       </c>
       <c r="E16">
-        <v>0.1642293536789445</v>
+        <v>0.08591562235041295</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.002541556255248763</v>
+        <v>0.0008267297650337581</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1.588474313654224</v>
+        <v>0.7541340789598578</v>
       </c>
       <c r="J16">
-        <v>0.05745612049301663</v>
+        <v>0.02034958502677675</v>
       </c>
       <c r="K16">
-        <v>0.6567127835873521</v>
+        <v>1.430035687648029</v>
       </c>
       <c r="L16">
-        <v>0.4721290813474042</v>
+        <v>0.3895388591971738</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>6.829559104401199</v>
+        <v>3.518349799482593</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.9530185410343677</v>
+        <v>1.548925637312095</v>
       </c>
       <c r="C17">
-        <v>0.05595450388226197</v>
+        <v>0.1103448678521914</v>
       </c>
       <c r="D17">
-        <v>0.5259878653217953</v>
+        <v>0.3702583515992899</v>
       </c>
       <c r="E17">
-        <v>0.1641442957658725</v>
+        <v>0.08441496911271429</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.002542692634235122</v>
+        <v>0.0008286278319288993</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.591402160809892</v>
+        <v>0.7527316145714806</v>
       </c>
       <c r="J17">
-        <v>0.05754657127695584</v>
+        <v>0.02047207394286321</v>
       </c>
       <c r="K17">
-        <v>0.6401679220394385</v>
+        <v>1.369738644430953</v>
       </c>
       <c r="L17">
-        <v>0.4696812275430347</v>
+        <v>0.3769077070470956</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>6.83754146446833</v>
+        <v>3.491697814397128</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.9429164625761643</v>
+        <v>1.510433637351383</v>
       </c>
       <c r="C18">
-        <v>0.05532395951135527</v>
+        <v>0.1084227663702677</v>
       </c>
       <c r="D18">
-        <v>0.5250245947839431</v>
+        <v>0.3642469835131408</v>
       </c>
       <c r="E18">
-        <v>0.1641008758455875</v>
+        <v>0.08356263332581193</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.002543355508992973</v>
+        <v>0.0008297271018351832</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.593147296138298</v>
+        <v>0.7520684085895724</v>
       </c>
       <c r="J18">
-        <v>0.05759951211423076</v>
+        <v>0.02054376016369996</v>
       </c>
       <c r="K18">
-        <v>0.6306679791948113</v>
+        <v>1.335135551104628</v>
       </c>
       <c r="L18">
-        <v>0.4682915368035339</v>
+        <v>0.3696874174315781</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>6.842411693098086</v>
+        <v>3.477054448937309</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.9395012624922572</v>
+        <v>1.497417504234136</v>
       </c>
       <c r="C19">
-        <v>0.05511018178043514</v>
+        <v>0.10777230572603</v>
       </c>
       <c r="D19">
-        <v>0.5247020415625059</v>
+        <v>0.3622198571878386</v>
       </c>
       <c r="E19">
-        <v>0.164087120679909</v>
+        <v>0.08327586862103331</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.002543581539692585</v>
+        <v>0.0008301006102090739</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.593748667344485</v>
+        <v>0.7518680807590883</v>
       </c>
       <c r="J19">
-        <v>0.05761759442954251</v>
+        <v>0.02056824309159477</v>
       </c>
       <c r="K19">
-        <v>0.6274542654643938</v>
+        <v>1.323432354995674</v>
       </c>
       <c r="L19">
-        <v>0.4678241498918112</v>
+        <v>0.3672502486106168</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>6.844108593093665</v>
+        <v>3.472212107655821</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.9548906690574199</v>
+        <v>1.556057686234936</v>
       </c>
       <c r="C20">
-        <v>0.05607106741931034</v>
+        <v>0.1107007708522758</v>
       </c>
       <c r="D20">
-        <v>0.5261678511720618</v>
+        <v>0.3713748702313495</v>
       </c>
       <c r="E20">
-        <v>0.1641527809863028</v>
+        <v>0.08457359042901302</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.002542570706826306</v>
+        <v>0.0008284250020121465</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.591084161722776</v>
+        <v>0.7528659626891425</v>
       </c>
       <c r="J20">
-        <v>0.05753684787453484</v>
+        <v>0.02045890692208729</v>
       </c>
       <c r="K20">
-        <v>0.6419274757709275</v>
+        <v>1.376149131284336</v>
       </c>
       <c r="L20">
-        <v>0.4699399179102386</v>
+        <v>0.3782476287249636</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>6.836662856491898</v>
+        <v>3.494463423738694</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.0069549245095</v>
+        <v>1.754334887648923</v>
       </c>
       <c r="C21">
-        <v>0.05927953765298355</v>
+        <v>0.1205682359261289</v>
       </c>
       <c r="D21">
-        <v>0.5313422405976667</v>
+        <v>0.4027341727731795</v>
       </c>
       <c r="E21">
-        <v>0.1644390744038091</v>
+        <v>0.08906534545588585</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.002539284933651159</v>
+        <v>0.0008228840981259104</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1.582861847958235</v>
+        <v>0.7579644472084794</v>
       </c>
       <c r="J21">
-        <v>0.05727648336430846</v>
+        <v>0.0201063479946928</v>
       </c>
       <c r="K21">
-        <v>0.6907480496034282</v>
+        <v>1.554250843521032</v>
       </c>
       <c r="L21">
-        <v>0.477266358457527</v>
+        <v>0.4157480228216457</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>6.8149788828689</v>
+        <v>3.577590571564485</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.041245088316458</v>
+        <v>1.884978068766543</v>
       </c>
       <c r="C22">
-        <v>0.06136149941815461</v>
+        <v>0.1270447619826029</v>
       </c>
       <c r="D22">
-        <v>0.5349093251372778</v>
+        <v>0.4237105603893951</v>
       </c>
       <c r="E22">
-        <v>0.1646749865525301</v>
+        <v>0.09210502376273411</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.002537219500388543</v>
+        <v>0.000819325969876416</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1.578031914724015</v>
+        <v>0.7626724079891005</v>
       </c>
       <c r="J22">
-        <v>0.05711444435685387</v>
+        <v>0.01988708462681732</v>
       </c>
       <c r="K22">
-        <v>0.7227957455243086</v>
+        <v>1.671491097657878</v>
       </c>
       <c r="L22">
-        <v>0.4822162229209965</v>
+        <v>0.440703024867247</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>6.80328968993075</v>
+        <v>3.638548583042336</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.022919935578358</v>
+        <v>1.81514637960484</v>
       </c>
       <c r="C23">
-        <v>0.06025169060785629</v>
+        <v>0.1235851576793721</v>
       </c>
       <c r="D23">
-        <v>0.5329885872592683</v>
+        <v>0.4124687462595773</v>
       </c>
       <c r="E23">
-        <v>0.1645446200937997</v>
+        <v>0.0904727705882955</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.002538314378967883</v>
+        <v>0.0008212194350537198</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1.580560000221254</v>
+        <v>0.7600288131518624</v>
       </c>
       <c r="J23">
-        <v>0.057200185801074</v>
+        <v>0.02000308053444044</v>
       </c>
       <c r="K23">
-        <v>0.7056786051277868</v>
+        <v>1.60883353752061</v>
       </c>
       <c r="L23">
-        <v>0.4795596431951452</v>
+        <v>0.4273408383687354</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>6.809301366693063</v>
+        <v>3.605381213150935</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.9540442004679619</v>
+        <v>1.552833029678027</v>
       </c>
       <c r="C24">
-        <v>0.05601837512820396</v>
+        <v>0.1105398632734449</v>
       </c>
       <c r="D24">
-        <v>0.5260864158392309</v>
+        <v>0.3708699486490161</v>
       </c>
       <c r="E24">
-        <v>0.164148927743426</v>
+        <v>0.08450184539303862</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.002542625800455038</v>
+        <v>0.0008285166763209954</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.591227736358768</v>
+        <v>0.7528047792755856</v>
       </c>
       <c r="J24">
-        <v>0.05754124089833201</v>
+        <v>0.02046485579163804</v>
       </c>
       <c r="K24">
-        <v>0.6411319443629395</v>
+        <v>1.373250757123458</v>
       </c>
       <c r="L24">
-        <v>0.4698229091234509</v>
+        <v>0.377641721294026</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>6.83705919962577</v>
+        <v>3.493210981758352</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.8809036815543436</v>
+        <v>1.273651373673204</v>
       </c>
       <c r="C25">
-        <v>0.051388287871454</v>
+        <v>0.09654567528120594</v>
       </c>
       <c r="D25">
-        <v>0.5194408866511111</v>
+        <v>0.327848520737092</v>
       </c>
       <c r="E25">
-        <v>0.1639326207283851</v>
+        <v>0.07847018877322753</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.00254763067335293</v>
+        <v>0.0008366787502736006</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.605071409999546</v>
+        <v>0.7504481633550952</v>
       </c>
       <c r="J25">
-        <v>0.05794416228581944</v>
+        <v>0.02101004532799067</v>
       </c>
       <c r="K25">
-        <v>0.5721302262109589</v>
+        <v>1.122053386972965</v>
       </c>
       <c r="L25">
-        <v>0.4600184863321459</v>
+        <v>0.3257229343585095</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>6.877667719547389</v>
+        <v>3.398192314401712</v>
       </c>
     </row>
   </sheetData>
